--- a/src/Excel/danhsachdatsan.xlsx
+++ b/src/Excel/danhsachdatsan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="111">
   <si>
     <t/>
   </si>
@@ -329,7 +329,22 @@
     <t>29</t>
   </si>
   <si>
-    <t>04:00:18</t>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>04:00:00</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>04:50:00</t>
+  </si>
+  <si>
+    <t>06:50:00</t>
+  </si>
+  <si>
+    <t>1000.0</t>
   </si>
 </sst>
 </file>
@@ -374,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1092,6 +1107,9 @@
       <c r="Q13" t="s" s="0">
         <v>60</v>
       </c>
+      <c r="R13" t="s" s="0">
+        <v>43</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
@@ -1145,6 +1163,9 @@
       <c r="Q14" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="R14" t="s" s="0">
+        <v>43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
@@ -1157,7 +1178,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>21</v>
@@ -1490,10 +1511,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>22</v>
@@ -1502,10 +1523,10 @@
         <v>22</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I21" t="s" s="0">
         <v>26</v>
@@ -1536,6 +1557,62 @@
       </c>
       <c r="R21" t="s" s="0">
         <v>43</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="O22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="P22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="Q22" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="R22" t="s" s="0">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/danhsachdatsan.xlsx
+++ b/src/Excel/danhsachdatsan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="114">
   <si>
     <t/>
   </si>
@@ -170,6 +170,9 @@
     <t>22:17:00</t>
   </si>
   <si>
+    <t>514.0</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
@@ -227,6 +230,9 @@
     <t>23:33:00</t>
   </si>
   <si>
+    <t>14.0</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -299,9 +305,6 @@
     <t>840.0</t>
   </si>
   <si>
-    <t>14.0</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
@@ -335,6 +338,15 @@
     <t>04:00:00</t>
   </si>
   <si>
+    <t>06:00:00</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
@@ -342,9 +354,6 @@
   </si>
   <si>
     <t>06:50:00</t>
-  </si>
-  <si>
-    <t>1000.0</t>
   </si>
 </sst>
 </file>
@@ -783,10 +792,13 @@
       <c r="Q7" t="s" s="0">
         <v>47</v>
       </c>
+      <c r="R7" t="s" s="0">
+        <v>52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>19</v>
@@ -804,10 +816,10 @@
         <v>21</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>41</v>
@@ -834,15 +846,15 @@
         <v>26</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>19</v>
@@ -860,10 +872,10 @@
         <v>21</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>25</v>
@@ -890,15 +902,15 @@
         <v>26</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>19</v>
@@ -916,10 +928,10 @@
         <v>21</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>19</v>
@@ -946,12 +958,15 @@
         <v>26</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="R10" t="s" s="0">
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>19</v>
@@ -969,10 +984,10 @@
         <v>21</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s" s="0">
         <v>25</v>
@@ -999,12 +1014,15 @@
         <v>19</v>
       </c>
       <c r="Q11" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="R11" t="s" s="0">
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>19</v>
@@ -1022,10 +1040,10 @@
         <v>21</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s" s="0">
         <v>25</v>
@@ -1054,10 +1072,13 @@
       <c r="Q12" t="s" s="0">
         <v>42</v>
       </c>
+      <c r="R12" t="s" s="0">
+        <v>72</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>19</v>
@@ -1075,10 +1096,10 @@
         <v>21</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="0">
         <v>25</v>
@@ -1105,7 +1126,7 @@
         <v>26</v>
       </c>
       <c r="Q13" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R13" t="s" s="0">
         <v>43</v>
@@ -1113,7 +1134,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>25</v>
@@ -1131,10 +1152,10 @@
         <v>21</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="0">
         <v>19</v>
@@ -1161,7 +1182,7 @@
         <v>26</v>
       </c>
       <c r="Q14" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="0">
         <v>43</v>
@@ -1169,7 +1190,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>19</v>
@@ -1187,10 +1208,10 @@
         <v>22</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="0">
         <v>25</v>
@@ -1217,15 +1238,15 @@
         <v>19</v>
       </c>
       <c r="Q15" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R15" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>25</v>
@@ -1243,10 +1264,10 @@
         <v>22</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s" s="0">
         <v>25</v>
@@ -1276,12 +1297,12 @@
         <v>42</v>
       </c>
       <c r="R16" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>25</v>
@@ -1299,13 +1320,13 @@
         <v>21</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s" s="0">
         <v>19</v>
@@ -1329,15 +1350,15 @@
         <v>26</v>
       </c>
       <c r="Q17" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R17" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>25</v>
@@ -1355,13 +1376,13 @@
         <v>21</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J18" t="s" s="0">
         <v>26</v>
@@ -1385,15 +1406,15 @@
         <v>26</v>
       </c>
       <c r="Q18" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R18" t="s" s="0">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>25</v>
@@ -1408,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s" s="0">
         <v>41</v>
@@ -1441,15 +1462,15 @@
         <v>26</v>
       </c>
       <c r="Q19" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R19" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>19</v>
@@ -1467,10 +1488,10 @@
         <v>22</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I20" t="s" s="0">
         <v>34</v>
@@ -1500,12 +1521,12 @@
         <v>47</v>
       </c>
       <c r="R20" t="s" s="0">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>19</v>
@@ -1514,7 +1535,7 @@
         <v>41</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>22</v>
@@ -1523,13 +1544,13 @@
         <v>22</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J21" t="s" s="0">
         <v>26</v>
@@ -1553,48 +1574,48 @@
         <v>19</v>
       </c>
       <c r="Q21" t="s" s="0">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="R21" t="s" s="0">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>34</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>22</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s" s="0">
         <v>25</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K22" t="s" s="0">
         <v>26</v>
       </c>
       <c r="L22" t="s" s="0">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M22" t="s" s="0">
         <v>26</v>
@@ -1606,13 +1627,13 @@
         <v>26</v>
       </c>
       <c r="P22" t="s" s="0">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q22" t="s" s="0">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="R22" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
